--- a/similarities/split_global/harmonic_similarity_timestamps_93.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_93.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,750 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>schubert-winterreise_86</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
+          <t>jaah_14</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min'], ['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min'], ['D#:min/A#', 'A#:7', 'D#:min']]</t>
+          <t>['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:13.180000', '0:00:19.520000'), ('0:00:00.300000', '0:00:02.820000')]</t>
+          <t>('0:00:16.240000', '0:00:24.340000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:01.260000', '0:00:05.920000'), ('0:01:56.660000', '0:02:01.420000')]</t>
+          <t>('0:01:06.930000', '0:01:23.820000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=13.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=0.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-86#t=16.24</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=1.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=116.66']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=66.93</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>isophonics_78</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['D', 'A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:18.120000', '0:00:24.540000')]</t>
+          <t>('0:00:37.738798', '0:00:47.769818')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:22.125076', '0:00:36.625937')]</t>
+          <t>('0:02:06.040000', '0:02:07.580000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=18.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=37.738798</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-69#t=22.125076']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=126.04</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
+          <t>isophonics_259</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>isophonics_0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['A', 'D', 'E']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['Db', 'Gb', 'Ab']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
+          <t>('0:00:47.187000', '0:00:57.707000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:58.080000', '0:01:05.660000')]</t>
+          <t>('0:00:00.344657', '0:00:05.571955')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-259#t=47.187</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=0.344657</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['A#:min', 'F:maj', 'A#:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:51.420000', '0:00:55.540000')]</t>
+          <t>('0:00:11.820000', '0:00:18.540000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:18.760000', '0:00:24.660000')]</t>
+          <t>('0:00:15.600000', '0:00:24.080000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-176#t=51.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=11.82</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=18.76']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=15.6</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_238</t>
+          <t>isophonics_89</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['B:dim7', 'C', 'F']]</t>
+          <t>['F#', 'B', 'F#']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:dim7', 'C#:maj', 'F#:maj/A#']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:17.769637', '0:00:22.996281')]</t>
+          <t>('0:00:14.928466', '0:00:21.522933')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:18.140000', '0:00:21.440000')]</t>
+          <t>('0:01:51.920000', '0:01:55.360000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-238#t=17.769637']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-89#t=14.928466</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=18.14']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>schubert-winterreise_195</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['A#:min', 'F:maj', 'A#:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C/3', 'F', 'C/3', 'F', 'C/3']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:02:03.220000', '0:02:07.580000')]</t>
+          <t>('0:00:15.600000', '0:00:24.080000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:16.585782', '0:01:19.023877')]</t>
+          <t>('0:00:44.160000', '0:00:48.160000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=123.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=15.6</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=76.585782']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=44.16</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>schubert-winterreise_17</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'F:min', 'C:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'F:min', 'C:min']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:30.128000', '0:01:39.300000')]</t>
+          <t>('0:01:06.520000', '0:01:10.140000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:12.394648', '0:00:21.125350')]</t>
+          <t>('0:02:18.020000', '0:02:22.340000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=90.128']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=12.394648']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>schubert-winterreise_89</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj', 'G:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['G:maj/B', 'D:7', 'G:maj', 'G:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:07.600000', '0:00:17.160000')]</t>
+          <t>('0:01:03.240000', '0:01:06.800000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:25.220000', '0:00:27.170000')]</t>
+          <t>('0:00:21.340000', '0:00:24.960000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=7.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=63.24</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=21.34</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['C:min', 'G:maj', 'C:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:02.530000', '0:01:09.910000')]</t>
+          <t>('0:01:29.080000', '0:01:38.100000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+          <t>('0:00:07.960000', '0:00:13.120000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=89.08</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=7.96</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['A#:maj/D', 'F:maj/C', 'C:7']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'B:7']]</t>
+          <t>['Ab', 'Db', 'Ab']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:17.680000', '0:01:21.940000')]</t>
+          <t>('0:01:20.420000', '0:01:24.640000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:44.354195', '0:01:53.665396')]</t>
+          <t>('0:02:03.030000', '0:02:09.120000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=77.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-107#t=104.354195']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=123.03</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>isophonics_255</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
+          <t>['D:min', 'G:min/5', 'D:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
+          <t>['G:min/A#', 'C:min', 'G:min/A#']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:04:21.680000', '0:04:29.360000')]</t>
+          <t>('0:00:27.789047', '0:00:31.109501')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:03:52.440000', '0:04:05.220000')]</t>
+          <t>('0:01:30.780000', '0:01:41.320000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=261.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-255#t=27.789047</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=232.44']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=90.78</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_75</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>schubert-winterreise_103</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:hdim7/A#', 'C:7', 'F:min']]</t>
+          <t>['C:min', 'F:7/C', 'A#']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A:hdim7/C', 'D:7', 'G:min']]</t>
+          <t>['C:min', 'F:7/A', 'A#:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:23.080000', '0:00:29.900000')]</t>
+          <t>('0:00:37.740000', '0:00:40.640000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:10.420000', '0:00:15.600000')]</t>
+          <t>('0:00:36.140000', '0:00:42.720000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=23.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=37.74</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-184#t=10.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=36.14</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_70</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'A:min7/C', 'D:7'], ['A:min7/C', 'D:7', 'G:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Db', 'Eb:min7', 'Ab:7'], ['Gb:maj6', 'Ab:7', 'Db']]</t>
+          <t>['D#:maj', 'G#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:13.160000', '0:01:17.720000'), ('0:01:14.200000', '0:01:21.180000')]</t>
+          <t>('0:01:01.320000', '0:01:03.700000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:38.860000', '0:00:42.220000'), ('0:00:37.750000', '0:00:41.100000')]</t>
+          <t>('0:02:07.600000', '0:02:12.400000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=73.16', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=74.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-70#t=38.86', 'https://soundcloud.com/jacopo-de-berardinis/jaah-70#t=37.75']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=127.6</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_191</t>
+          <t>isophonics_205</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
+          <t>['G:min/A#', 'C:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:min', 'Ab:min']]</t>
+          <t>['B:min', 'E', 'E/2']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:05.400000', '0:00:14.840000')]</t>
+          <t>('0:00:07.380000', '0:00:09.260000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:08.620975', '0:00:14.367913')]</t>
+          <t>('0:00:59.162887', '0:01:05.559465')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=5.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=7.38</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-191#t=8.620975']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-205#t=59.162887</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>isophonics_273</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:maj', 'D:maj'], ['D:maj', 'G:maj', 'D:maj']]</t>
+          <t>['C', 'G', 'C']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C/5', 'G', 'C/5'], ['C/3', 'F', 'C/3']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:19.727000', '0:00:41.282000'), ('0:00:11.384000', '0:00:18.318000')]</t>
+          <t>('0:00:20.801000', '0:00:27.165000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:12.094553', '0:00:16.853782'), ('0:01:16.585782', '0:01:18.064810')]</t>
+          <t>('0:00:00.340000', '0:00:17.940000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=19.727', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-273#t=20.801</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=12.094553', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=76.585782']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=0.34</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
